--- a/test_signup/Utrecht/NTDS_Nijmegen.xlsx
+++ b/test_signup/Utrecht/NTDS_Nijmegen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alen\PycharmProjects\NTDS_Loting\test_signup\Utrecht\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alen\PycharmProjects\NTDS_Loting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,10 +948,10 @@
         <v>115</v>
       </c>
       <c r="H6" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
         <v>117</v>
@@ -1086,10 +1086,10 @@
         <v>115</v>
       </c>
       <c r="H11" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s">
         <v>117</v>
@@ -1343,10 +1343,10 @@
         <v>115</v>
       </c>
       <c r="H20" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J20" t="s">
         <v>117</v>
@@ -1852,10 +1852,10 @@
         <v>115</v>
       </c>
       <c r="H38" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I38" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J38" t="s">
         <v>117</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>107</v>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>52</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>36</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>78</v>

--- a/test_signup/Utrecht/NTDS_Nijmegen.xlsx
+++ b/test_signup/Utrecht/NTDS_Nijmegen.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alen\PycharmProjects\NTDS_Loting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alen\PycharmProjects\NTDS_Loting\test_signup\Utrecht\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="13275"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="120">
   <si>
     <t>Nr.</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Ben je op een eerder ETDS of NTDS vrijwilliger geweest?</t>
-  </si>
-  <si>
-    <t>Doe je mee aan de Same Seks wedstrijd?</t>
   </si>
   <si>
     <t>Anne</t>
@@ -747,15 +744,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X45"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -825,95 +822,92 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="K3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H5" s="1">
         <v>21</v>
@@ -922,30 +916,30 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H6" s="1">
         <v>43</v>
@@ -954,27 +948,27 @@
         <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H7" s="1">
         <v>22</v>
@@ -983,30 +977,30 @@
         <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H8" s="1">
         <v>29</v>
@@ -1015,75 +1009,75 @@
         <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="K9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H11" s="1">
         <v>42</v>
@@ -1092,55 +1086,55 @@
         <v>42</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H13" s="1">
         <v>24</v>
@@ -1149,30 +1143,30 @@
         <v>24</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H14" s="1">
         <v>20</v>
@@ -1181,53 +1175,53 @@
         <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="K15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H16" s="1">
         <v>36</v>
@@ -1236,10 +1230,10 @@
         <v>36</v>
       </c>
       <c r="J16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1247,19 +1241,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
         <v>69</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H17" s="2">
         <v>17</v>
@@ -1268,10 +1262,10 @@
         <v>17</v>
       </c>
       <c r="J17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1279,16 +1273,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H18" s="2">
         <v>16</v>
@@ -1297,10 +1291,10 @@
         <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1308,22 +1302,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1331,16 +1325,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H20" s="1">
         <v>44</v>
@@ -1349,10 +1343,10 @@
         <v>44</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1360,16 +1354,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H21" s="1">
         <v>13</v>
@@ -1378,10 +1372,10 @@
         <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1389,16 +1383,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H22" s="1">
         <v>4</v>
@@ -1407,10 +1401,10 @@
         <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1418,16 +1412,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H23" s="1">
         <v>6</v>
@@ -1436,10 +1430,10 @@
         <v>6</v>
       </c>
       <c r="J23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1447,22 +1441,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1470,16 +1464,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H25" s="1">
         <v>12</v>
@@ -1488,10 +1482,10 @@
         <v>12</v>
       </c>
       <c r="J25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1499,16 +1493,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H26" s="1">
         <v>35</v>
@@ -1517,10 +1511,10 @@
         <v>35</v>
       </c>
       <c r="J26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -1528,16 +1522,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H27" s="1">
         <v>40</v>
@@ -1546,10 +1540,10 @@
         <v>40</v>
       </c>
       <c r="J27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -1557,24 +1551,24 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -1582,27 +1576,27 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
         <v>91</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -1610,16 +1604,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H30" s="1">
         <v>7</v>
@@ -1628,10 +1622,10 @@
         <v>7</v>
       </c>
       <c r="J30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -1639,24 +1633,24 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -1664,27 +1658,27 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1692,16 +1686,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H33" s="1">
         <v>34</v>
@@ -1710,10 +1704,10 @@
         <v>34</v>
       </c>
       <c r="J33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1721,19 +1715,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C34" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H34" s="1">
         <v>38</v>
@@ -1742,10 +1736,10 @@
         <v>38</v>
       </c>
       <c r="J34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -1753,16 +1747,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H35" s="1">
         <v>32</v>
@@ -1771,10 +1765,10 @@
         <v>32</v>
       </c>
       <c r="J35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -1782,16 +1776,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H36" s="1">
         <v>25</v>
@@ -1800,10 +1794,10 @@
         <v>25</v>
       </c>
       <c r="J36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -1811,16 +1805,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="F37" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H37" s="1">
         <v>15</v>
@@ -1829,10 +1823,10 @@
         <v>15</v>
       </c>
       <c r="J37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -1840,16 +1834,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F38" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H38" s="1">
         <v>41</v>
@@ -1858,10 +1852,10 @@
         <v>41</v>
       </c>
       <c r="J38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -1869,16 +1863,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H39" s="1">
         <v>33</v>
@@ -1887,10 +1881,10 @@
         <v>33</v>
       </c>
       <c r="J39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -1898,30 +1892,30 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F40" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -1929,16 +1923,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H41" s="1">
         <v>26</v>
@@ -1947,10 +1941,10 @@
         <v>26</v>
       </c>
       <c r="J41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -1958,16 +1952,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H42" s="1">
         <v>37</v>
@@ -1976,10 +1970,10 @@
         <v>37</v>
       </c>
       <c r="J42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -1987,16 +1981,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F43" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H43" s="1">
         <v>10</v>
@@ -2005,10 +1999,10 @@
         <v>10</v>
       </c>
       <c r="J43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2016,19 +2010,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F44" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H44" s="1">
         <v>5</v>
@@ -2037,10 +2031,10 @@
         <v>5</v>
       </c>
       <c r="J44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2048,16 +2042,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="F45" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H45" s="1">
         <v>19</v>
@@ -2066,10 +2060,10 @@
         <v>19</v>
       </c>
       <c r="J45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
